--- a/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/Expr_2.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/Expr_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_7/Poisson_Seed_Scale_Expr2d_1_7_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79499B1-B462-A542-BF47-6DBE59569994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD1878-1B67-E849-BB4D-F2C4303C6DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50280" yWindow="720" windowWidth="39060" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,8 +149,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2,900,900,900,,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>2,900,900,900,1</t>
   </si>
 </sst>
 </file>
@@ -596,7 +595,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -807,7 +806,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
